--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -500,6 +500,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1321,6 +1322,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2076,6 +2078,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -844,13 +844,13 @@
         <v>21.05</v>
       </c>
       <c r="I10">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -867,25 +867,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="H11">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
       <c r="I11">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -914,13 +914,13 @@
         <v>20.59</v>
       </c>
       <c r="I12">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1566,22 +1566,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>17.24</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>82.76000000000001</v>
+      </c>
+      <c r="I8">
+        <v>6.7</v>
       </c>
       <c r="J8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1598,22 +1601,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>30.3</v>
+      </c>
+      <c r="I9">
+        <v>8.199999999999999</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1630,22 +1636,25 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>47.37</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>52.63</v>
+      </c>
+      <c r="I10">
+        <v>8.6</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1662,22 +1671,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>43.59</v>
+      </c>
+      <c r="I11">
+        <v>8.800000000000001</v>
       </c>
       <c r="J11">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1694,22 +1706,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>38.24</v>
+      </c>
+      <c r="I12">
+        <v>7.6</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2352,7 +2367,7 @@
         <v>51.72</v>
       </c>
       <c r="I8">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="J8">
         <v>14</v>
@@ -2387,7 +2402,7 @@
         <v>3.03</v>
       </c>
       <c r="I9">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2410,25 +2425,25 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H10">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
       <c r="I10">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2445,25 +2460,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="H11">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
       <c r="I11">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>23.08</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2492,13 +2507,13 @@
         <v>20.59</v>
       </c>
       <c r="I12">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -762,25 +762,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>48.28</v>
+        <v>55.17</v>
       </c>
       <c r="H8">
-        <v>51.72</v>
+        <v>44.83</v>
       </c>
       <c r="I8">
         <v>6.5</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>48.28</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -902,25 +902,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H12">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>17.65</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1147,25 +1147,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>83.33</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>16.67</v>
       </c>
       <c r="I19">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="J19">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1182,25 +1182,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>54.84</v>
+        <v>83.87</v>
       </c>
       <c r="H20">
-        <v>45.16</v>
+        <v>16.13</v>
       </c>
       <c r="I20">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>45.16</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1217,25 +1217,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>71.43000000000001</v>
+        <v>80.95</v>
       </c>
       <c r="H21">
-        <v>28.57</v>
+        <v>19.05</v>
       </c>
       <c r="I21">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>28.57</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1252,25 +1252,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="I22">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1287,25 +1287,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>30.43</v>
+        <v>82.61</v>
       </c>
       <c r="H23">
-        <v>69.56999999999999</v>
+        <v>17.39</v>
       </c>
       <c r="I23">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>69.56999999999999</v>
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>
@@ -1566,25 +1566,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>17.24</v>
+        <v>37.93</v>
       </c>
       <c r="H8">
-        <v>82.76000000000001</v>
+        <v>62.07</v>
       </c>
       <c r="I8">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>79.31</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1601,25 +1601,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>69.7</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H9">
-        <v>30.3</v>
+        <v>24.24</v>
       </c>
       <c r="I9">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>30.3</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1636,25 +1636,25 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>47.37</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>52.63</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>52.63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1671,25 +1671,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H11">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1706,25 +1706,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H12">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
       <c r="I12">
         <v>7.6</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1741,22 +1741,25 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>25.64</v>
+      </c>
+      <c r="I13">
+        <v>7.2</v>
       </c>
       <c r="J13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1773,22 +1776,25 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>9.76</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1805,22 +1811,25 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>7.3</v>
       </c>
       <c r="J15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1837,22 +1846,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>84.62</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>15.38</v>
+      </c>
+      <c r="I16">
+        <v>7.2</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1869,22 +1881,25 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>77.14</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>22.86</v>
+      </c>
+      <c r="I17">
+        <v>7.3</v>
       </c>
       <c r="J17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1901,22 +1916,25 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>7.4</v>
       </c>
       <c r="J18">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1933,22 +1951,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I19">
+        <v>6.9</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1965,22 +1986,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>83.87</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>16.13</v>
+      </c>
+      <c r="I20">
+        <v>7.5</v>
       </c>
       <c r="J20">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1997,22 +2021,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>80.95</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>19.05</v>
+      </c>
+      <c r="I21">
+        <v>7.8</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2029,22 +2056,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>17.5</v>
+      </c>
+      <c r="I22">
+        <v>7.5</v>
       </c>
       <c r="J22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2061,22 +2091,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>82.61</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>17.39</v>
+      </c>
+      <c r="I23">
+        <v>6.8</v>
       </c>
       <c r="J23">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>
@@ -2355,25 +2388,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>48.28</v>
+        <v>55.17</v>
       </c>
       <c r="H8">
-        <v>51.72</v>
+        <v>44.83</v>
       </c>
       <c r="I8">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>48.28</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2495,25 +2528,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>79.41</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H12">
-        <v>20.59</v>
+        <v>14.71</v>
       </c>
       <c r="I12">
         <v>7.4</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>17.65</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2542,7 +2575,7 @@
         <v>25.64</v>
       </c>
       <c r="I13">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2565,19 +2598,19 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>92.68000000000001</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="H14">
-        <v>7.32</v>
+        <v>9.76</v>
       </c>
       <c r="I14">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2635,19 +2668,19 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>92.31</v>
+        <v>84.62</v>
       </c>
       <c r="H16">
-        <v>7.69</v>
+        <v>15.38</v>
       </c>
       <c r="I16">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2670,19 +2703,19 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>85.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H17">
-        <v>14.29</v>
+        <v>22.86</v>
       </c>
       <c r="I17">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2705,19 +2738,19 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>86.11</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>13.89</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2740,25 +2773,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>83.33</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>16.67</v>
       </c>
       <c r="I19">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="J19">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2775,25 +2808,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>54.84</v>
+        <v>83.87</v>
       </c>
       <c r="H20">
-        <v>45.16</v>
+        <v>16.13</v>
       </c>
       <c r="I20">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>45.16</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2810,25 +2843,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>71.43000000000001</v>
+        <v>80.95</v>
       </c>
       <c r="H21">
-        <v>28.57</v>
+        <v>19.05</v>
       </c>
       <c r="I21">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>28.57</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2845,25 +2878,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="I22">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2880,25 +2913,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>30.43</v>
+        <v>82.61</v>
       </c>
       <c r="H23">
-        <v>69.56999999999999</v>
+        <v>17.39</v>
       </c>
       <c r="I23">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>69.56999999999999</v>
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -1374,22 +1374,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="I2">
+        <v>7.2</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1406,22 +1409,25 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>81.08</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>18.92</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1470,22 +1476,25 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>7.9</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2190,7 +2199,7 @@
         <v>35.9</v>
       </c>
       <c r="I2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2213,19 +2222,19 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>75.68000000000001</v>
+        <v>81.08</v>
       </c>
       <c r="H3">
-        <v>24.32</v>
+        <v>18.92</v>
       </c>
       <c r="I3">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2283,19 +2292,19 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>79.17</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>20.83</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>0</v>

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -1444,22 +1444,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>42.86</v>
+      </c>
+      <c r="I4">
+        <v>6.2</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1511,22 +1514,25 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>22.22</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1543,22 +1549,25 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>56.76</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>43.24</v>
+      </c>
+      <c r="I7">
+        <v>6.4</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2257,16 +2266,16 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>57.14</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="I4">
         <v>6.5</v>
@@ -2339,7 +2348,7 @@
         <v>22.22</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2362,19 +2371,19 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>54.05</v>
+        <v>56.76</v>
       </c>
       <c r="H7">
-        <v>45.95</v>
+        <v>43.24</v>
       </c>
       <c r="I7">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J7">
         <v>0</v>

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -552,16 +552,16 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
       <c r="I2">
         <v>7.6</v>
@@ -587,19 +587,19 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>75.68000000000001</v>
+        <v>78.38</v>
       </c>
       <c r="H3">
-        <v>24.32</v>
+        <v>21.62</v>
       </c>
       <c r="I3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -762,25 +762,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>55.17</v>
+        <v>58.62</v>
       </c>
       <c r="H8">
-        <v>44.83</v>
+        <v>41.38</v>
       </c>
       <c r="I8">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>41.38</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1374,16 +1374,16 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
       <c r="I2">
         <v>7.2</v>
@@ -1584,25 +1584,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>37.93</v>
+        <v>44.83</v>
       </c>
       <c r="H8">
-        <v>62.07</v>
+        <v>55.17</v>
       </c>
       <c r="I8">
         <v>6.4</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>58.62</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1724,25 +1724,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>70.59</v>
+        <v>73.53</v>
       </c>
       <c r="H12">
-        <v>29.41</v>
+        <v>26.47</v>
       </c>
       <c r="I12">
         <v>7.6</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>29.41</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2196,16 +2196,16 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
       <c r="I2">
         <v>7.5</v>
@@ -2243,7 +2243,7 @@
         <v>18.92</v>
       </c>
       <c r="I3">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2406,25 +2406,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>55.17</v>
+        <v>58.62</v>
       </c>
       <c r="H8">
-        <v>44.83</v>
+        <v>41.38</v>
       </c>
       <c r="I8">
         <v>6.6</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>41.38</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="9" spans="1:11">

--- a/academias/Inglés - Estadisticos 2020.xlsx
+++ b/academias/Inglés - Estadisticos 2020.xlsx
@@ -1584,25 +1584,25 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>44.83</v>
+        <v>48.28</v>
       </c>
       <c r="H8">
-        <v>55.17</v>
+        <v>51.72</v>
       </c>
       <c r="I8">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>51.72</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1689,25 +1689,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H11">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2523,7 +2523,7 @@
         <v>17.95</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J11">
         <v>7</v>
